--- a/input_v5_4xlsx.xlsx
+++ b/input_v5_4xlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/eclipse-workspace/fuh-scheduling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/Documentos/git/ae-fixture/data/entrada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2B92B-DCAF-3245-B6C2-E0841ACA1728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB796B9-201F-DD49-B949-3D15FC33CBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>instituto 1</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>COLEGIO MÁSTER</t>
   </si>
   <si>
     <t>SCUOLA ITALIANA</t>
@@ -110,9 +107,6 @@
     <t>AEBU</t>
   </si>
   <si>
-    <t>SEMINARIO BORDEAUX</t>
-  </si>
-  <si>
     <t>CBR</t>
   </si>
   <si>
@@ -149,15 +143,6 @@
     <t>SEN. M</t>
   </si>
   <si>
-    <t>LAYVA AMARILLO</t>
-  </si>
-  <si>
-    <t>LAYVA VERDE</t>
-  </si>
-  <si>
-    <t>CEVVEN ROSADO</t>
-  </si>
-  <si>
     <t>PONTEVEDRES BALONMAN</t>
   </si>
   <si>
@@ -171,9 +156,6 @@
   </si>
   <si>
     <t>CLUB NAUTICO</t>
-  </si>
-  <si>
-    <t>CBR ROJO</t>
   </si>
   <si>
     <t>CS. LA PAZ</t>
@@ -222,9 +204,6 @@
   </si>
   <si>
     <t>instituciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. A. PEÑAROL </t>
   </si>
   <si>
     <t>MHB 33</t>
@@ -728,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -773,218 +752,218 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
@@ -994,287 +973,242 @@
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
@@ -7994,16 +7928,16 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Horario no válido - Ingrese un horario en el formato adecuado (HH:MM:SS/HH:MM)" sqref="E2:E3 E7:E1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(GTE(E2,MIN((0),(0.999305555555556))),LTE(E2,MAX((0),(0.999305555555556))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instituo no válido - Selecciopne un instituto de la lista desplegable" sqref="A2:A29 A35:A52 A54:A1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instituo no válido - Selecciopne un instituto de la lista desplegable" sqref="A54:A1000 A42:A52 A2:A25 A31:A36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>ListaInstituciones</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Categoría no válida - Seleccione una categoría de la lista desplegable" sqref="C2:C29 C35:C52 C54:C1000" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Categoría no válida - Seleccione una categoría de la lista desplegable" sqref="C54:C1000 C42:C52 C2:C25 C31:C36" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>ListaCategorias</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cancha no válida - Seleccione una cancha de la lista desplegable" sqref="D2:D4 D6:D7 D9:D1000" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>ListaCanchas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instituo no válido - Seleccione un instituto de la lista desplegable" sqref="B2:B29 B35:B52 B54:B1000" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instituo no válido - Seleccione un instituto de la lista desplegable" sqref="B54:B1000 B42:B52 B2:B25 B31:B36" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>ListaInstituciones</formula1>
     </dataValidation>
   </dataValidations>
@@ -8031,37 +7965,37 @@
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11062,10 +10996,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -11073,7 +11007,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4">
         <v>70</v>
@@ -11084,7 +11018,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>70</v>
@@ -11095,18 +11029,18 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
         <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4">
         <v>80</v>
@@ -11117,18 +11051,18 @@
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4">
         <v>90</v>
@@ -11139,13 +11073,13 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11161,7 +11095,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
         <v>90</v>
@@ -11172,18 +11106,18 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>90</v>
@@ -11194,13 +11128,13 @@
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
         <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16167,7 +16101,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -16197,22 +16131,22 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -16237,19 +16171,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -16275,19 +16209,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -21413,7 +21347,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21424,27 +21358,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21454,27 +21388,27 @@
     </row>
     <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21484,87 +21418,87 @@
     </row>
     <row r="13" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="28" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -24509,15 +24443,15 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5">
         <v>0.58333333333333304</v>
@@ -24529,7 +24463,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5">
         <v>0.375</v>
@@ -24541,7 +24475,7 @@
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5">
         <v>0.625</v>
@@ -24553,7 +24487,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>0.375</v>
@@ -24565,7 +24499,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <v>0.58333333333333304</v>
@@ -24577,7 +24511,7 @@
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <v>0.375</v>
@@ -24589,7 +24523,7 @@
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
         <v>0.58333333333333304</v>
@@ -24601,7 +24535,7 @@
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>0.375</v>
@@ -24613,7 +24547,7 @@
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>0.39583333333333298</v>
@@ -24627,7 +24561,7 @@
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
         <v>0.58333333333333304</v>
@@ -30605,21 +30539,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8">
         <v>90</v>
@@ -35651,15 +35585,15 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
